--- a/back/MoneyLifeBack/Files/EjemploBaseDatos.xlsx
+++ b/back/MoneyLifeBack/Files/EjemploBaseDatos.xlsx
@@ -5,21 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00818942\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\money-life\back\MoneyLifeBack\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE2869-B11D-457E-88FB-33BC81F64FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC03B46-ED1E-4004-B273-2E1F82BF459B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="2055" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{BA6815FD-2D0B-734E-9AE3-AD5EF786C707}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{BA6815FD-2D0B-734E-9AE3-AD5EF786C707}"/>
   </bookViews>
   <sheets>
-    <sheet name="PERIODO" sheetId="2" r:id="rId1"/>
-    <sheet name="TIPOEVENTO" sheetId="3" r:id="rId2"/>
-    <sheet name="TIPOPREGUNTA" sheetId="6" r:id="rId3"/>
-    <sheet name="AFECTA" sheetId="5" r:id="rId4"/>
-    <sheet name="EVENTO" sheetId="7" r:id="rId5"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="AFECTA" sheetId="4" r:id="rId2"/>
+    <sheet name="REQUISITO" sheetId="3" r:id="rId3"/>
+    <sheet name="PERIODO" sheetId="2" r:id="rId4"/>
+    <sheet name="TIPO_EVENTO" sheetId="5" r:id="rId5"/>
+    <sheet name="EVENTO" sheetId="6" r:id="rId6"/>
+    <sheet name="EVENTO_AFECTA" sheetId="8" r:id="rId7"/>
+    <sheet name="EVENTO_REQUISITO" sheetId="9" r:id="rId8"/>
+    <sheet name="TIPO_PREGUNTA" sheetId="10" r:id="rId9"/>
+    <sheet name="PREGUNTA" sheetId="11" r:id="rId10"/>
+    <sheet name="PREGUNTA_AFECTA" sheetId="12" r:id="rId11"/>
+    <sheet name="PREGUNTA_REQUISITO" sheetId="13" r:id="rId12"/>
+    <sheet name="PRESTAMO" sheetId="14" r:id="rId13"/>
+    <sheet name="PRESTAMO_AFECTA" sheetId="15" r:id="rId14"/>
+    <sheet name="Acciones y Cetes" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +47,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="149">
+  <si>
+    <t>AFECTA</t>
+  </si>
   <si>
     <t>Tipo_Afecta</t>
   </si>
@@ -54,6 +67,21 @@
     <t>Egresos</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>REQUISITO</t>
+  </si>
+  <si>
+    <t>Tipo_Requisito</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>TIPO_EVENTO</t>
+  </si>
+  <si>
     <t>Tipo_Evento</t>
   </si>
   <si>
@@ -63,6 +91,9 @@
     <t>Micro</t>
   </si>
   <si>
+    <t>EVENTO</t>
+  </si>
+  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -78,44 +109,402 @@
     <t>Tu novia te obsequio un perro</t>
   </si>
   <si>
+    <t>EVENTO_AFECTA</t>
+  </si>
+  <si>
+    <t>Afecta</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
     <t>Felicidad</t>
   </si>
   <si>
+    <t>EVENTO_REQUISITO</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>&lt;20</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>&lt;1000</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>TIPO_PREGUNTA</t>
+  </si>
+  <si>
     <t>Tipo_Pregunta</t>
   </si>
   <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>PREGUNTA</t>
+  </si>
+  <si>
+    <t>Tus hijos quieren un xbox de navidad</t>
+  </si>
+  <si>
+    <t>PREGUNTA_AFECTA</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>PREGUNTA_REQUISITO</t>
+  </si>
+  <si>
+    <t>&gt;20000</t>
+  </si>
+  <si>
+    <t>&gt;15</t>
+  </si>
+  <si>
+    <t>TipoPrestamo</t>
+  </si>
+  <si>
+    <t>PRESTAMO_REQUISITO</t>
+  </si>
+  <si>
+    <t>PRESTAMO_AFECTA</t>
+  </si>
+  <si>
+    <t>%-20</t>
+  </si>
+  <si>
+    <t>Tener_Hijos</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>%20</t>
+  </si>
+  <si>
+    <t>NumeroLiteral</t>
+  </si>
+  <si>
+    <t>NumeroEnPorcentaje</t>
+  </si>
+  <si>
+    <t>=20</t>
+  </si>
+  <si>
+    <t>10-30</t>
+  </si>
+  <si>
+    <t>Mayor a 20</t>
+  </si>
+  <si>
+    <t>Menor a 20</t>
+  </si>
+  <si>
+    <t>Igual a 20</t>
+  </si>
+  <si>
+    <t>Entre 10 - 30</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Tipo_Periodo</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>%-13</t>
+  </si>
+  <si>
+    <t>%-4</t>
+  </si>
+  <si>
+    <t>Unico</t>
+  </si>
+  <si>
+    <t>-8000</t>
+  </si>
+  <si>
+    <t>%10</t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>PRESTAMO</t>
+  </si>
+  <si>
+    <t>Trump rompe el tratado de libre y comercio con Mexico</t>
+  </si>
+  <si>
+    <t>Infinito</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>ES TREU</t>
+  </si>
+  <si>
+    <t>ES FALSE</t>
+  </si>
+  <si>
+    <t>Enganche</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>1 año</t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>TazaInteres</t>
+  </si>
+  <si>
+    <t>CantidadPrestada</t>
+  </si>
+  <si>
+    <t>10 años</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>TipoInversion</t>
+  </si>
+  <si>
+    <t>TasaRendimiento</t>
+  </si>
+  <si>
+    <t>0-0.01</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Objeto Prestamo</t>
+  </si>
+  <si>
+    <t>Objeto Inversion</t>
+  </si>
+  <si>
+    <t>Saldo Inicial</t>
+  </si>
+  <si>
+    <t>Evento Externo</t>
+  </si>
+  <si>
+    <t>Tasa Rendimiento</t>
+  </si>
+  <si>
+    <t>Aportacion</t>
+  </si>
+  <si>
+    <t>Saldo Actual</t>
+  </si>
+  <si>
+    <t>Saldo Inicial mas Aportaciones</t>
+  </si>
+  <si>
+    <t>[CALCULA]</t>
+  </si>
+  <si>
+    <t>[CALCULA] o 24</t>
+  </si>
+  <si>
+    <t>Inversion_Activos</t>
+  </si>
+  <si>
+    <t>GananciaCapital</t>
+  </si>
+  <si>
+    <t>FlujoEfectivo</t>
+  </si>
+  <si>
+    <t>%00002</t>
+  </si>
+  <si>
+    <t>-%20</t>
+  </si>
+  <si>
+    <t>5 año</t>
+  </si>
+  <si>
+    <t>IngresosMenosEgresos</t>
+  </si>
+  <si>
+    <t>Poner todo a la misma frecuencia</t>
+  </si>
+  <si>
+    <t>Sueldo y Flujo de Efectico (Inversiones)</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>(Ingresos - Egresos)/Ingresos &gt; .30 and Ingresos - Egresos &gt; Dinero a pagar and Efectivo &gt; Enganche</t>
+  </si>
+  <si>
+    <t>Requisito Enganche</t>
+  </si>
+  <si>
+    <t>Siempre es mensual</t>
+  </si>
+  <si>
+    <t>no se ocupa</t>
+  </si>
+  <si>
+    <t>SaldoInsoluto</t>
+  </si>
+  <si>
+    <t>AbonoCapital</t>
+  </si>
+  <si>
+    <t>Amortizacion</t>
+  </si>
+  <si>
+    <t>Interes</t>
+  </si>
+  <si>
+    <t>unico</t>
+  </si>
+  <si>
+    <t>La tabla se va</t>
+  </si>
+  <si>
+    <t>Mensualidad</t>
+  </si>
+  <si>
+    <t>SaldoInversion</t>
+  </si>
+  <si>
+    <t>Efectivo &gt; 10% del valor total</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>CEMEX</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>TipoEmpresa</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
+  <si>
+    <t>TipoInvercion</t>
+  </si>
+  <si>
+    <t>Cete</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>SaldoInicial</t>
+  </si>
+  <si>
+    <t>Saldo mas Aportacion</t>
+  </si>
+  <si>
+    <t>Tasa Rendoimiento</t>
+  </si>
+  <si>
+    <t>SaldoActual</t>
+  </si>
+  <si>
+    <t>NombreInvercion</t>
+  </si>
+  <si>
+    <t>Cetes</t>
+  </si>
+  <si>
+    <t>CETES</t>
+  </si>
+  <si>
     <t>Inversion</t>
   </si>
   <si>
-    <t>Gasto</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Tipo_Periodo</t>
-  </si>
-  <si>
-    <t>Semanal</t>
-  </si>
-  <si>
-    <t>Quincenal</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
-    <t>Unico</t>
-  </si>
-  <si>
-    <t>Turnos</t>
+    <t>-3% - 3%</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>RangoRendimiento</t>
+  </si>
+  <si>
+    <t>-5% - 5%</t>
+  </si>
+  <si>
+    <t>-1% - 3%</t>
+  </si>
+  <si>
+    <t>Compras un departamento para rentar</t>
+  </si>
+  <si>
+    <t>Acciones y Cetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetoi Acciones y Cetes </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,8 +520,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +556,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,16 +634,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,57 +1013,1585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DC748B-C40A-47B2-B769-5CA4D2B2F471}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E20177-6F2B-5F44-9750-3B69B66E57F0}">
+  <dimension ref="A2:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="53.125" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="50.625" customWidth="1"/>
+    <col min="17" max="17" width="20.875" customWidth="1"/>
+    <col min="18" max="18" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="R10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="R11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="5"/>
+      <c r="R12" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="1">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="1">
+        <v>32</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="1">
+        <v>40</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="1">
+        <v>40</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="1">
+        <v>50000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>40023</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E41" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="34">
+        <v>-0.02</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E49" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>1150000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="13">
+        <v>150000</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="1">
+        <v>500</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9500</v>
+      </c>
+      <c r="L50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="21">
+        <v>999500</v>
+      </c>
+      <c r="P51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="P54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="P56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1000.001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="1">
+        <v>23000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J61" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="K61" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="L61" s="1">
+        <v>17000</v>
+      </c>
+      <c r="M61" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C9F2C-E0C3-F94F-B56F-F3D720FCD24F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301EB641-285E-924D-8997-6947733C5EF2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E940E2-4E62-EC41-A3F7-6E923EB186D5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4F39C-FCC0-8340-ACAC-3350AA9DA824}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC9FC23-856A-D640-9D35-04DC9F2A18FC}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF4BCA-618E-E344-86A2-03411A1C5373}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -549,31 +2600,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04C9EE7-A140-4823-933E-3B82C5AC0261}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CDF885-08B6-3A4D-83B6-A5FAD03D7321}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -582,36 +2653,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A014392A-1ABC-46CA-8A96-D05799C73B3E}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D962-CA8B-0F4F-BF1D-4E4B63E22A97}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
+      <c r="A1" s="25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
+      <c r="A3" s="26" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -620,46 +2706,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC17FE6-598C-4FA7-88C9-3CE897FD2D75}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D3F3CE-86C9-7C4D-A8EB-47DCFCA0091A}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -668,38 +2772,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC10C1C-AF65-42B6-81A6-55CF56EC3370}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D29E03-D3D8-3E49-B7BE-13FF6357BE81}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7BA4A3-5787-314B-BDA7-51021E01D626}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -708,12 +2842,12 @@
         <v>0.2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -722,7 +2856,218 @@
         <v>0.43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F68455-A2F6-B344-874E-183B9F6B2207}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8662C3FA-7F20-A54D-B0D0-59AB81930CEB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFF8DAE-F870-304F-B398-32833A78E625}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
